--- a/src/main/webapp/config/system_menu_config.xlsx
+++ b/src/main/webapp/config/system_menu_config.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>menu_context</t>
   </si>
@@ -177,6 +177,24 @@
   </si>
   <si>
     <t>Operation4Student/index</t>
+  </si>
+  <si>
+    <t>试题库服务</t>
+  </si>
+  <si>
+    <t>完成有关试题库的各种功能</t>
+  </si>
+  <si>
+    <t>Operation4Paper/index</t>
+  </si>
+  <si>
+    <t>课程维护</t>
+  </si>
+  <si>
+    <t>完成有关课程的各种维护</t>
+  </si>
+  <si>
+    <t>Operation4Course/index</t>
   </si>
 </sst>
 </file>
@@ -184,12 +202,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,10 +216,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,68 +276,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,14 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -319,13 +322,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -334,16 +353,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,19 +369,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,25 +459,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,121 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +574,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,46 +626,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,153 +649,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -1479,6 +1490,41 @@
       </c>
       <c r="F20" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/config/system_menu_config.xlsx
+++ b/src/main/webapp/config/system_menu_config.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>menu_context</t>
   </si>
@@ -195,6 +195,21 @@
   </si>
   <si>
     <t>Operation4Course/index</t>
+  </si>
+  <si>
+    <t>试题维护</t>
+  </si>
+  <si>
+    <t>完成有关试题的各种维护任务</t>
+  </si>
+  <si>
+    <t>Operation4Question/index</t>
+  </si>
+  <si>
+    <t>试卷维护</t>
+  </si>
+  <si>
+    <t>完成有关试卷的各种维护任务</t>
   </si>
 </sst>
 </file>
@@ -202,8 +217,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -216,16 +231,90 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,105 +337,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,55 +384,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,127 +540,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,6 +575,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -581,8 +605,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,16 +645,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,133 +695,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,10 +1148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -1522,8 +1537,41 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22"/>
       <c r="F22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:6">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
         <v>54</v>
       </c>
     </row>

--- a/src/main/webapp/config/system_menu_config.xlsx
+++ b/src/main/webapp/config/system_menu_config.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>menu_context</t>
   </si>
@@ -203,13 +203,16 @@
     <t>完成有关试题的各种维护任务</t>
   </si>
   <si>
-    <t>Operation4Question/index</t>
+    <t>Operation4QuestionType/index</t>
   </si>
   <si>
     <t>试卷维护</t>
   </si>
   <si>
     <t>完成有关试卷的各种维护任务</t>
+  </si>
+  <si>
+    <t>Operation4TestPaper/index</t>
   </si>
 </sst>
 </file>
@@ -217,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -228,6 +231,38 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,16 +274,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,52 +296,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,11 +312,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,7 +342,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,25 +364,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,19 +387,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,67 +465,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,85 +525,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,15 +578,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,47 +599,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +622,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -675,6 +639,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -683,10 +686,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,133 +698,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1154,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -1566,7 +1569,7 @@
         <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D24">
         <v>0</v>
